--- a/uploads/M15.xlsx
+++ b/uploads/M15.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>ID</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>Savol-Javoblar</t>
+  </si>
+  <si>
+    <t>M15</t>
+  </si>
+  <si>
+    <t>Azizbek Bariyev</t>
+  </si>
+  <si>
+    <t>Samarqand</t>
+  </si>
+  <si>
+    <t>1:1, 2:1</t>
   </si>
 </sst>
 </file>
@@ -399,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -420,8 +432,36 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/uploads/M15.xlsx
+++ b/uploads/M15.xlsx
@@ -441,6 +441,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>